--- a/data/pca/factorExposure/factorExposure_2014-10-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-10-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +713,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +738,63 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>-0.006002895764866758</v>
+        <v>0.01906927241758673</v>
       </c>
       <c r="C2">
-        <v>-0.1103294132901345</v>
+        <v>0.07332265091963627</v>
       </c>
       <c r="D2">
-        <v>0.003782283198007558</v>
+        <v>-0.02977655182309162</v>
       </c>
       <c r="E2">
-        <v>0.237850702134551</v>
+        <v>0.08035179281187171</v>
       </c>
       <c r="F2">
-        <v>0.07175792385478076</v>
+        <v>0.1382463081278311</v>
       </c>
       <c r="G2">
-        <v>-0.05227246510726224</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.003433081143421592</v>
+      </c>
+      <c r="H2">
+        <v>-0.05975392017713661</v>
+      </c>
+      <c r="I2">
+        <v>-0.01378351828141857</v>
+      </c>
+      <c r="J2">
+        <v>-0.01907959719029603</v>
+      </c>
+      <c r="K2">
+        <v>0.2068856777192874</v>
+      </c>
+      <c r="L2">
+        <v>0.1430081361607064</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +814,63 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>-0.01899492900836769</v>
+        <v>0.01870554400742797</v>
       </c>
       <c r="C4">
-        <v>-0.1602544336545814</v>
+        <v>0.1428153172526882</v>
       </c>
       <c r="D4">
-        <v>-0.02533507763182044</v>
+        <v>-0.06491676617003292</v>
       </c>
       <c r="E4">
-        <v>0.08471783489305922</v>
+        <v>-0.02877837770149052</v>
       </c>
       <c r="F4">
-        <v>-0.07865627761060061</v>
+        <v>0.07734568857021888</v>
       </c>
       <c r="G4">
-        <v>-0.02465288738828629</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.00953677598997806</v>
+      </c>
+      <c r="H4">
+        <v>-0.1022163282028225</v>
+      </c>
+      <c r="I4">
+        <v>-0.03307530565716803</v>
+      </c>
+      <c r="J4">
+        <v>0.109839624153476</v>
+      </c>
+      <c r="K4">
+        <v>0.160684258453522</v>
+      </c>
+      <c r="L4">
+        <v>0.02485693786070503</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +890,443 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>-0.02353524671022557</v>
+        <v>0.03872601455434552</v>
       </c>
       <c r="C6">
-        <v>-0.08166320305201723</v>
+        <v>0.0889998574765717</v>
       </c>
       <c r="D6">
-        <v>-0.04904934223111845</v>
+        <v>-0.0286657116979281</v>
       </c>
       <c r="E6">
-        <v>0.06486063825129364</v>
+        <v>0.04595178050290372</v>
       </c>
       <c r="F6">
-        <v>0.002761550004306551</v>
+        <v>0.02136034430459663</v>
       </c>
       <c r="G6">
-        <v>0.01211841400721915</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.04203932007576822</v>
+      </c>
+      <c r="H6">
+        <v>-0.03115908124559878</v>
+      </c>
+      <c r="I6">
+        <v>0.07715022038201649</v>
+      </c>
+      <c r="J6">
+        <v>-0.0707222978865374</v>
+      </c>
+      <c r="K6">
+        <v>0.07378175660498984</v>
+      </c>
+      <c r="L6">
+        <v>-0.03292831126771358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>-0.001687719444369442</v>
+        <v>0.01803197832384012</v>
       </c>
       <c r="C7">
-        <v>-0.06592235909187419</v>
+        <v>0.07475687966383414</v>
       </c>
       <c r="D7">
-        <v>-0.03128668153824037</v>
+        <v>-0.02772312313391764</v>
       </c>
       <c r="E7">
-        <v>0.03433452545452829</v>
+        <v>-0.01911753316733756</v>
       </c>
       <c r="F7">
-        <v>-0.04526454647582793</v>
+        <v>0.00161685367649592</v>
       </c>
       <c r="G7">
-        <v>0.008637701480747819</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.0396941387955831</v>
+      </c>
+      <c r="H7">
+        <v>-0.09998170558493556</v>
+      </c>
+      <c r="I7">
+        <v>0.008779061208073738</v>
+      </c>
+      <c r="J7">
+        <v>0.01588688296227058</v>
+      </c>
+      <c r="K7">
+        <v>0.04600274767257725</v>
+      </c>
+      <c r="L7">
+        <v>0.02459973532406359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>0.008597920492671954</v>
+        <v>-0.0007210300354168195</v>
       </c>
       <c r="C8">
-        <v>-0.0714496207820846</v>
+        <v>0.06098224849464629</v>
       </c>
       <c r="D8">
-        <v>-0.02907328793313192</v>
+        <v>-0.042440753066449</v>
       </c>
       <c r="E8">
-        <v>0.09303682932802072</v>
+        <v>0.01402691380435238</v>
       </c>
       <c r="F8">
-        <v>-0.02523619039251214</v>
+        <v>0.05899990146209443</v>
       </c>
       <c r="G8">
-        <v>-0.03027788562324418</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.01324965863036049</v>
+      </c>
+      <c r="H8">
+        <v>-0.05650402110013104</v>
+      </c>
+      <c r="I8">
+        <v>0.002168703187929395</v>
+      </c>
+      <c r="J8">
+        <v>0.00664896247599094</v>
+      </c>
+      <c r="K8">
+        <v>0.005147427228995116</v>
+      </c>
+      <c r="L8">
+        <v>0.0028194469256762</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>-0.009192297862645978</v>
+        <v>0.01340753687391132</v>
       </c>
       <c r="C9">
-        <v>-0.1265913271108143</v>
+        <v>0.1050155516723875</v>
       </c>
       <c r="D9">
-        <v>-0.03611133790138509</v>
+        <v>-0.0433469394032024</v>
       </c>
       <c r="E9">
-        <v>0.03505257904553999</v>
+        <v>-0.003453090773669064</v>
       </c>
       <c r="F9">
-        <v>-0.03118705654054043</v>
+        <v>0.03085366329845077</v>
       </c>
       <c r="G9">
-        <v>0.02867659933145473</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.0009049973497026994</v>
+      </c>
+      <c r="H9">
+        <v>-0.09065583694914987</v>
+      </c>
+      <c r="I9">
+        <v>0.01056673304962359</v>
+      </c>
+      <c r="J9">
+        <v>0.07212565301049564</v>
+      </c>
+      <c r="K9">
+        <v>0.07547329555184142</v>
+      </c>
+      <c r="L9">
+        <v>-0.006320864813403882</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>-0.2729732146850001</v>
+        <v>0.247211316204599</v>
       </c>
       <c r="C10">
-        <v>0.08147606538542512</v>
+        <v>-0.09176772760256517</v>
       </c>
       <c r="D10">
-        <v>0.02056845971587861</v>
+        <v>0.003680396382151508</v>
       </c>
       <c r="E10">
-        <v>-0.03912420589716461</v>
+        <v>0.01382165845960297</v>
       </c>
       <c r="F10">
-        <v>-0.005688803384343721</v>
+        <v>-0.01506507458040931</v>
       </c>
       <c r="G10">
-        <v>0.01917208356325931</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.01241441026706204</v>
+      </c>
+      <c r="H10">
+        <v>-0.0352833942147829</v>
+      </c>
+      <c r="I10">
+        <v>-0.1549266315120742</v>
+      </c>
+      <c r="J10">
+        <v>0.09890113295452621</v>
+      </c>
+      <c r="K10">
+        <v>-0.09105177172078831</v>
+      </c>
+      <c r="L10">
+        <v>0.01640954358357546</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>-0.00702594158011817</v>
+        <v>0.01655909888749365</v>
       </c>
       <c r="C11">
-        <v>-0.07165968497432822</v>
+        <v>0.08440014482500055</v>
       </c>
       <c r="D11">
-        <v>-0.02588557520910454</v>
+        <v>-0.03774646388987449</v>
       </c>
       <c r="E11">
-        <v>-0.0141353837271448</v>
+        <v>-0.008899131146058434</v>
       </c>
       <c r="F11">
-        <v>-0.02637607558733814</v>
+        <v>-0.0135527115671286</v>
       </c>
       <c r="G11">
-        <v>0.04034653313952242</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.008067405305756758</v>
+      </c>
+      <c r="H11">
+        <v>-0.03094660996219455</v>
+      </c>
+      <c r="I11">
+        <v>0.02505976502907407</v>
+      </c>
+      <c r="J11">
+        <v>0.0114845816659739</v>
+      </c>
+      <c r="K11">
+        <v>-0.0204256052297668</v>
+      </c>
+      <c r="L11">
+        <v>-0.05703142278280528</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>-0.00638334869023992</v>
+        <v>0.0166024436189274</v>
       </c>
       <c r="C12">
-        <v>-0.05837470313154124</v>
+        <v>0.06017947575589232</v>
       </c>
       <c r="D12">
-        <v>-0.02927381835864376</v>
+        <v>-0.02198229065124065</v>
       </c>
       <c r="E12">
-        <v>-0.01231240720190149</v>
+        <v>0.01545701989563745</v>
       </c>
       <c r="F12">
-        <v>0.001813582780016339</v>
+        <v>-0.01894636654466871</v>
       </c>
       <c r="G12">
-        <v>0.07031914113096971</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.02597008394092451</v>
+      </c>
+      <c r="H12">
+        <v>-0.02940493740814309</v>
+      </c>
+      <c r="I12">
+        <v>0.01956603402939603</v>
+      </c>
+      <c r="J12">
+        <v>0.01265998617784451</v>
+      </c>
+      <c r="K12">
+        <v>-0.008765988635012297</v>
+      </c>
+      <c r="L12">
+        <v>-0.05344759399899193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>-0.01695739845050056</v>
+        <v>0.00653495150922973</v>
       </c>
       <c r="C13">
-        <v>-0.1290520658987315</v>
+        <v>0.1210879908407142</v>
       </c>
       <c r="D13">
-        <v>-0.0560358904206098</v>
+        <v>-0.0424653108361422</v>
       </c>
       <c r="E13">
-        <v>0.0629340591354712</v>
+        <v>0.1377896176142965</v>
       </c>
       <c r="F13">
-        <v>-0.02628651009132994</v>
+        <v>0.08277548073880732</v>
       </c>
       <c r="G13">
-        <v>0.1811307775197378</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.1176595755588588</v>
+      </c>
+      <c r="H13">
+        <v>-0.1428710299827673</v>
+      </c>
+      <c r="I13">
+        <v>-0.2028660120095737</v>
+      </c>
+      <c r="J13">
+        <v>-0.115505036751516</v>
+      </c>
+      <c r="K13">
+        <v>-0.2089404699010135</v>
+      </c>
+      <c r="L13">
+        <v>0.003233519910401192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>-0.008088190230449967</v>
+        <v>0.01910951059341394</v>
       </c>
       <c r="C14">
-        <v>-0.06966780490021776</v>
+        <v>0.07584877841215645</v>
       </c>
       <c r="D14">
-        <v>-0.02988701813907536</v>
+        <v>-0.05004876765150004</v>
       </c>
       <c r="E14">
-        <v>0.03833849236206037</v>
+        <v>0.04421217024596486</v>
       </c>
       <c r="F14">
-        <v>0.001718482420507171</v>
+        <v>-0.01163578847177229</v>
       </c>
       <c r="G14">
-        <v>0.06617563556510092</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.07175689142862021</v>
+      </c>
+      <c r="H14">
+        <v>-0.2112915290470072</v>
+      </c>
+      <c r="I14">
+        <v>0.04575083826024753</v>
+      </c>
+      <c r="J14">
+        <v>-0.02937462379710254</v>
+      </c>
+      <c r="K14">
+        <v>-0.1039147014909396</v>
+      </c>
+      <c r="L14">
+        <v>0.156225502939164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B15">
-        <v>-0.007440983933683902</v>
+        <v>0.002606183275983688</v>
       </c>
       <c r="C15">
-        <v>-0.0993582193371358</v>
+        <v>0.08094750961803136</v>
       </c>
       <c r="D15">
-        <v>-0.04053313334347779</v>
+        <v>-0.03526253942152118</v>
       </c>
       <c r="E15">
-        <v>0.06598206744670644</v>
+        <v>0.002699331527614248</v>
       </c>
       <c r="F15">
-        <v>-0.03143500416087895</v>
+        <v>0.02373682663789983</v>
       </c>
       <c r="G15">
-        <v>0.03291221888971424</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>-0.02976393693100391</v>
+      </c>
+      <c r="H15">
+        <v>-0.09147573905734181</v>
+      </c>
+      <c r="I15">
+        <v>0.03022116686836197</v>
+      </c>
+      <c r="J15">
+        <v>0.01445564327377179</v>
+      </c>
+      <c r="K15">
+        <v>-0.0523990199305113</v>
+      </c>
+      <c r="L15">
+        <v>0.02960501213289784</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>-0.009877471359751316</v>
+        <v>0.01544164769408831</v>
       </c>
       <c r="C16">
-        <v>-0.06480383727725626</v>
+        <v>0.06438497364323773</v>
       </c>
       <c r="D16">
-        <v>-0.01730482355664371</v>
+        <v>-0.02612084541224952</v>
       </c>
       <c r="E16">
-        <v>-0.011282289105927</v>
+        <v>-0.00314874107539326</v>
       </c>
       <c r="F16">
-        <v>-0.00334776194658652</v>
+        <v>-0.01041398185836667</v>
       </c>
       <c r="G16">
-        <v>0.03337129159674259</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.007045030039749672</v>
+      </c>
+      <c r="H16">
+        <v>-0.02347127102511802</v>
+      </c>
+      <c r="I16">
+        <v>0.02068984185331356</v>
+      </c>
+      <c r="J16">
+        <v>0.01002181451329175</v>
+      </c>
+      <c r="K16">
+        <v>-0.00391943470782749</v>
+      </c>
+      <c r="L16">
+        <v>-0.0400391675417012</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1346,25 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1384,25 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1422,291 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B20">
-        <v>-0.01389091368961199</v>
+        <v>0.01437581365879127</v>
       </c>
       <c r="C20">
-        <v>-0.08878147215165098</v>
+        <v>0.08568411940259113</v>
       </c>
       <c r="D20">
-        <v>-0.01971940007582094</v>
+        <v>-0.02567733908462206</v>
       </c>
       <c r="E20">
-        <v>-0.00128332259564099</v>
+        <v>-0.0290630018770156</v>
       </c>
       <c r="F20">
-        <v>-0.06731121600006522</v>
+        <v>-0.004589304022997825</v>
       </c>
       <c r="G20">
-        <v>0.08042494566263091</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.03762303654681748</v>
+      </c>
+      <c r="H20">
+        <v>-0.07118907801551609</v>
+      </c>
+      <c r="I20">
+        <v>0.01717995148063932</v>
+      </c>
+      <c r="J20">
+        <v>0.01532622572852363</v>
+      </c>
+      <c r="K20">
+        <v>0.01333258966729528</v>
+      </c>
+      <c r="L20">
+        <v>-0.00919597268306281</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B21">
-        <v>-0.0003521955579014601</v>
+        <v>0.0140676567238336</v>
       </c>
       <c r="C21">
-        <v>-0.09254433361695161</v>
+        <v>0.07364378074503143</v>
       </c>
       <c r="D21">
-        <v>0.02537815441098899</v>
+        <v>-0.02274474329700459</v>
       </c>
       <c r="E21">
-        <v>0.04736328665680636</v>
+        <v>0.08738283906266214</v>
       </c>
       <c r="F21">
-        <v>0.0407380869832647</v>
+        <v>-0.00637605453788668</v>
       </c>
       <c r="G21">
-        <v>0.0601976319628074</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.01463318130893173</v>
+      </c>
+      <c r="H21">
+        <v>-0.1437176491274584</v>
+      </c>
+      <c r="I21">
+        <v>-0.02330091576636834</v>
+      </c>
+      <c r="J21">
+        <v>-0.0107884553450733</v>
+      </c>
+      <c r="K21">
+        <v>-0.04881148995181545</v>
+      </c>
+      <c r="L21">
+        <v>-0.01377876727802401</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B22">
-        <v>-0.04374184056414815</v>
+        <v>0.006858455600757256</v>
       </c>
       <c r="C22">
-        <v>-0.1928691411083062</v>
+        <v>0.1725338680354674</v>
       </c>
       <c r="D22">
-        <v>0.08354289620439163</v>
+        <v>-0.01680849182216428</v>
       </c>
       <c r="E22">
-        <v>0.3030586322193825</v>
+        <v>0.005044344307970912</v>
       </c>
       <c r="F22">
-        <v>-0.1349658090929303</v>
+        <v>0.536923709157037</v>
       </c>
       <c r="G22">
-        <v>-0.2072729745904884</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.0008018582473401233</v>
+      </c>
+      <c r="H22">
+        <v>0.2893942990750335</v>
+      </c>
+      <c r="I22">
+        <v>-0.01002960330520836</v>
+      </c>
+      <c r="J22">
+        <v>0.005695707570388751</v>
+      </c>
+      <c r="K22">
+        <v>-0.219858392230085</v>
+      </c>
+      <c r="L22">
+        <v>-0.04017558949847131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B23">
-        <v>-0.04350566734849266</v>
+        <v>0.01182890814275216</v>
       </c>
       <c r="C23">
-        <v>-0.1935243564169566</v>
+        <v>0.1763645204220254</v>
       </c>
       <c r="D23">
-        <v>0.08332704185703442</v>
+        <v>-0.01604617004546112</v>
       </c>
       <c r="E23">
-        <v>0.2988781999847754</v>
+        <v>0.005477011127469905</v>
       </c>
       <c r="F23">
-        <v>-0.1333703155340915</v>
+        <v>0.5184274224546928</v>
       </c>
       <c r="G23">
-        <v>-0.2067581964086386</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>-0.001751177003678239</v>
+      </c>
+      <c r="H23">
+        <v>0.2684398520685425</v>
+      </c>
+      <c r="I23">
+        <v>-0.003557430749847821</v>
+      </c>
+      <c r="J23">
+        <v>0.01115468852065706</v>
+      </c>
+      <c r="K23">
+        <v>-0.2060604586868078</v>
+      </c>
+      <c r="L23">
+        <v>-0.04427166834458428</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B24">
-        <v>-0.00356655866362845</v>
+        <v>0.01676923262839851</v>
       </c>
       <c r="C24">
-        <v>-0.06930578600455992</v>
+        <v>0.07062623710911903</v>
       </c>
       <c r="D24">
-        <v>-0.03994940210977097</v>
+        <v>-0.03901063615125627</v>
       </c>
       <c r="E24">
-        <v>-0.01093027290243159</v>
+        <v>-0.006862584238899566</v>
       </c>
       <c r="F24">
-        <v>-0.01808501015257786</v>
+        <v>-0.01130519301894235</v>
       </c>
       <c r="G24">
-        <v>0.05418211567836168</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.02122891429044051</v>
+      </c>
+      <c r="H24">
+        <v>-0.04149579100780029</v>
+      </c>
+      <c r="I24">
+        <v>0.02221835226027653</v>
+      </c>
+      <c r="J24">
+        <v>0.016870462035026</v>
+      </c>
+      <c r="K24">
+        <v>-0.01249786018664395</v>
+      </c>
+      <c r="L24">
+        <v>-0.04650649266581722</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B25">
-        <v>-0.00675054884128324</v>
+        <v>0.02054904634370901</v>
       </c>
       <c r="C25">
-        <v>-0.06882426762744709</v>
+        <v>0.07096526676735017</v>
       </c>
       <c r="D25">
-        <v>-0.01464549222534187</v>
+        <v>-0.02768761390395979</v>
       </c>
       <c r="E25">
-        <v>-0.01550501271872546</v>
+        <v>-0.00753578065465725</v>
       </c>
       <c r="F25">
-        <v>-0.01994578706421993</v>
+        <v>-0.008100723660604183</v>
       </c>
       <c r="G25">
-        <v>0.05150191772713076</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.01810287039678698</v>
+      </c>
+      <c r="H25">
+        <v>-0.03571979953872749</v>
+      </c>
+      <c r="I25">
+        <v>0.01179486475161949</v>
+      </c>
+      <c r="J25">
+        <v>0.01884901957128555</v>
+      </c>
+      <c r="K25">
+        <v>-0.02289671215462355</v>
+      </c>
+      <c r="L25">
+        <v>-0.03213083962698485</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B26">
-        <v>-0.007220708031811328</v>
+        <v>0.02490056490044318</v>
       </c>
       <c r="C26">
-        <v>-0.06386398396004418</v>
+        <v>0.06063343492332982</v>
       </c>
       <c r="D26">
-        <v>-0.05762917901072759</v>
+        <v>-0.06400632229016165</v>
       </c>
       <c r="E26">
-        <v>0.01344476771242869</v>
+        <v>-0.007402436585084324</v>
       </c>
       <c r="F26">
-        <v>0.005217349471699266</v>
+        <v>-0.01804984691951834</v>
       </c>
       <c r="G26">
-        <v>0.04444648619560191</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.006262143432901346</v>
+      </c>
+      <c r="H26">
+        <v>-0.100469481722966</v>
+      </c>
+      <c r="I26">
+        <v>0.04701496915576522</v>
+      </c>
+      <c r="J26">
+        <v>0.06773955663863133</v>
+      </c>
+      <c r="K26">
+        <v>0.1065591912683361</v>
+      </c>
+      <c r="L26">
+        <v>-0.05507147992057986</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1726,367 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>-0.3736669013961812</v>
+        <v>0.317175579836193</v>
       </c>
       <c r="C28">
-        <v>0.1018442118229283</v>
+        <v>-0.1079453414150816</v>
       </c>
       <c r="D28">
-        <v>0.02622772375830045</v>
+        <v>0.03267122653951556</v>
       </c>
       <c r="E28">
-        <v>-0.09471085695754888</v>
+        <v>0.02460816521686323</v>
       </c>
       <c r="F28">
-        <v>0.06606470037260061</v>
+        <v>0.03812321258574385</v>
       </c>
       <c r="G28">
-        <v>-0.0023826986029115</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.124978301744353</v>
+      </c>
+      <c r="H28">
+        <v>-0.0643013621315023</v>
+      </c>
+      <c r="I28">
+        <v>-0.2166212475082059</v>
+      </c>
+      <c r="J28">
+        <v>0.003976783459805551</v>
+      </c>
+      <c r="K28">
+        <v>0.007102437003766025</v>
+      </c>
+      <c r="L28">
+        <v>-0.02894136675856764</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B29">
-        <v>-0.006137846832000818</v>
+        <v>0.0135643460568164</v>
       </c>
       <c r="C29">
-        <v>-0.07264131416290075</v>
+        <v>0.08073671288871254</v>
       </c>
       <c r="D29">
-        <v>-0.0435743595259321</v>
+        <v>-0.05502791490723802</v>
       </c>
       <c r="E29">
-        <v>0.03820277523781183</v>
+        <v>0.05314588094021503</v>
       </c>
       <c r="F29">
-        <v>-0.01604967066891047</v>
+        <v>-0.005365858364369674</v>
       </c>
       <c r="G29">
-        <v>0.09612124398764886</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.111249241867774</v>
+      </c>
+      <c r="H29">
+        <v>-0.2993929219187537</v>
+      </c>
+      <c r="I29">
+        <v>0.04215479802622189</v>
+      </c>
+      <c r="J29">
+        <v>-0.04187735061207401</v>
+      </c>
+      <c r="K29">
+        <v>-0.1583679970082311</v>
+      </c>
+      <c r="L29">
+        <v>0.2957447411662933</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B30">
-        <v>-0.03345038367618122</v>
+        <v>0.03127433503146496</v>
       </c>
       <c r="C30">
-        <v>-0.1719658596198421</v>
+        <v>0.1426493788583763</v>
       </c>
       <c r="D30">
-        <v>-0.05467976012512898</v>
+        <v>-0.0558840855239325</v>
       </c>
       <c r="E30">
-        <v>0.05251791673442434</v>
+        <v>-0.002325571738231356</v>
       </c>
       <c r="F30">
-        <v>-0.05011013540544283</v>
+        <v>0.06722482752470901</v>
       </c>
       <c r="G30">
-        <v>-0.007077306332047059</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.01124405653115698</v>
+      </c>
+      <c r="H30">
+        <v>-0.02773658345676938</v>
+      </c>
+      <c r="I30">
+        <v>0.03978936740901226</v>
+      </c>
+      <c r="J30">
+        <v>0.01178176528256274</v>
+      </c>
+      <c r="K30">
+        <v>0.09193053329250805</v>
+      </c>
+      <c r="L30">
+        <v>-0.02652843457582952</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B31">
-        <v>0.004775234899592765</v>
+        <v>0.01332594625651715</v>
       </c>
       <c r="C31">
-        <v>-0.06600928190249981</v>
+        <v>0.08255223342131145</v>
       </c>
       <c r="D31">
-        <v>-0.03782692645837953</v>
+        <v>-0.04119904123202356</v>
       </c>
       <c r="E31">
-        <v>-0.01512563385701086</v>
+        <v>0.0009117729355772126</v>
       </c>
       <c r="F31">
-        <v>0.008237953022247746</v>
+        <v>-0.003010994601261635</v>
       </c>
       <c r="G31">
-        <v>0.01627918631855367</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.029635157718271</v>
+      </c>
+      <c r="H31">
+        <v>-0.03425503350099473</v>
+      </c>
+      <c r="I31">
+        <v>0.01847262282592551</v>
+      </c>
+      <c r="J31">
+        <v>0.01495767345009762</v>
+      </c>
+      <c r="K31">
+        <v>-0.03915080957641703</v>
+      </c>
+      <c r="L31">
+        <v>-0.03964004829102178</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B32">
-        <v>-0.01938505694381668</v>
+        <v>0.0219462136515968</v>
       </c>
       <c r="C32">
-        <v>-0.08241681682355398</v>
+        <v>0.05608161897399189</v>
       </c>
       <c r="D32">
-        <v>0.008505232455519349</v>
+        <v>-0.01795339777239224</v>
       </c>
       <c r="E32">
-        <v>0.1625227516686795</v>
+        <v>0.08493677574206322</v>
       </c>
       <c r="F32">
-        <v>-0.005798395740081387</v>
+        <v>0.08111683364085193</v>
       </c>
       <c r="G32">
-        <v>0.05910096048820507</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.0647378623015069</v>
+      </c>
+      <c r="H32">
+        <v>-0.1750043895469666</v>
+      </c>
+      <c r="I32">
+        <v>-0.2463316565557742</v>
+      </c>
+      <c r="J32">
+        <v>-0.1025129571519654</v>
+      </c>
+      <c r="K32">
+        <v>-0.02336063292822076</v>
+      </c>
+      <c r="L32">
+        <v>0.142435440474265</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B33">
-        <v>-0.01535495870421912</v>
+        <v>0.01773705423662396</v>
       </c>
       <c r="C33">
-        <v>-0.09722294702873026</v>
+        <v>0.1074909063197857</v>
       </c>
       <c r="D33">
-        <v>-0.05982950959661985</v>
+        <v>-0.04759531965844225</v>
       </c>
       <c r="E33">
-        <v>0.01392039435515951</v>
+        <v>-0.006531258711431939</v>
       </c>
       <c r="F33">
-        <v>-0.006085412376697645</v>
+        <v>0.01377344245622713</v>
       </c>
       <c r="G33">
-        <v>0.03306158452958736</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.02240596881982671</v>
+      </c>
+      <c r="H33">
+        <v>-0.05796719752443484</v>
+      </c>
+      <c r="I33">
+        <v>-0.01070149860003033</v>
+      </c>
+      <c r="J33">
+        <v>0.02831581650915741</v>
+      </c>
+      <c r="K33">
+        <v>-0.005480490557036369</v>
+      </c>
+      <c r="L33">
+        <v>-0.01923007882984365</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B34">
-        <v>-0.00354066346807106</v>
+        <v>0.0164614496082005</v>
       </c>
       <c r="C34">
-        <v>-0.05363474509347785</v>
+        <v>0.05153479175676776</v>
       </c>
       <c r="D34">
-        <v>-0.02260332178515938</v>
+        <v>-0.02069915096937411</v>
       </c>
       <c r="E34">
-        <v>0.001654691555025298</v>
+        <v>0.001170841010206655</v>
       </c>
       <c r="F34">
-        <v>0.001134407708433435</v>
+        <v>-0.01068351388777794</v>
       </c>
       <c r="G34">
-        <v>0.04111391525949955</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.01584453064226354</v>
+      </c>
+      <c r="H34">
+        <v>-0.00931471420104538</v>
+      </c>
+      <c r="I34">
+        <v>0.01542138547227563</v>
+      </c>
+      <c r="J34">
+        <v>0.0203747832348143</v>
+      </c>
+      <c r="K34">
+        <v>-0.01008706882315472</v>
+      </c>
+      <c r="L34">
+        <v>-0.04152549556962576</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B35">
-        <v>-0.002492816297571611</v>
+        <v>0.009740425027673541</v>
       </c>
       <c r="C35">
-        <v>-0.02020651342477565</v>
+        <v>0.0414300865830534</v>
       </c>
       <c r="D35">
-        <v>-0.006706617041338274</v>
+        <v>-0.02138490246103333</v>
       </c>
       <c r="E35">
-        <v>0.01178584809408764</v>
+        <v>0.01453377835558264</v>
       </c>
       <c r="F35">
-        <v>-0.009849809317480814</v>
+        <v>0.002433334359421096</v>
       </c>
       <c r="G35">
-        <v>0.02670540055614998</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>-0.04401346272999574</v>
+      </c>
+      <c r="H35">
+        <v>-0.1523745170766028</v>
+      </c>
+      <c r="I35">
+        <v>0.01466250742711406</v>
+      </c>
+      <c r="J35">
+        <v>0.01086459146103409</v>
+      </c>
+      <c r="K35">
+        <v>-0.1345235879376806</v>
+      </c>
+      <c r="L35">
+        <v>0.1644587958938863</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B36">
-        <v>-0.006023556531542388</v>
+        <v>0.01585682127420423</v>
       </c>
       <c r="C36">
-        <v>-0.05369570529624557</v>
+        <v>0.04998135643517422</v>
       </c>
       <c r="D36">
-        <v>-0.04937175482346731</v>
+        <v>-0.04880766949448544</v>
       </c>
       <c r="E36">
-        <v>0.006477698385211171</v>
+        <v>0.002202884084381082</v>
       </c>
       <c r="F36">
-        <v>-0.0008304193307099094</v>
+        <v>0.0006531248958078505</v>
       </c>
       <c r="G36">
-        <v>0.02237972501674787</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.004085751283317687</v>
+      </c>
+      <c r="H36">
+        <v>-0.07294968143580687</v>
+      </c>
+      <c r="I36">
+        <v>0.01608195160143629</v>
+      </c>
+      <c r="J36">
+        <v>0.02530918290637174</v>
+      </c>
+      <c r="K36">
+        <v>0.03635227370030865</v>
+      </c>
+      <c r="L36">
+        <v>-0.05762048019899645</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +2106,177 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B38">
-        <v>-0.03061574188326062</v>
+        <v>0.01285239799581871</v>
       </c>
       <c r="C38">
-        <v>-0.06163054721905446</v>
+        <v>0.06475737776836778</v>
       </c>
       <c r="D38">
-        <v>-0.04228729452401596</v>
+        <v>-0.04127891325811695</v>
       </c>
       <c r="E38">
-        <v>-0.003477783013157887</v>
+        <v>-0.02789447784118586</v>
       </c>
       <c r="F38">
-        <v>-0.009156405295886679</v>
+        <v>0.01325059538890886</v>
       </c>
       <c r="G38">
-        <v>0.007749746664205841</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.008835185888666761</v>
+      </c>
+      <c r="H38">
+        <v>-0.0833117591770967</v>
+      </c>
+      <c r="I38">
+        <v>-0.05456373273365971</v>
+      </c>
+      <c r="J38">
+        <v>0.001393311499070379</v>
+      </c>
+      <c r="K38">
+        <v>-0.04477745016132454</v>
+      </c>
+      <c r="L38">
+        <v>-0.1081089603191406</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B39">
-        <v>-0.001302312791314691</v>
+        <v>0.01700692056641328</v>
       </c>
       <c r="C39">
-        <v>-0.1331858994105205</v>
+        <v>0.1280884540261822</v>
       </c>
       <c r="D39">
-        <v>-0.03821641391490862</v>
+        <v>-0.05430085792405794</v>
       </c>
       <c r="E39">
-        <v>0.01820105505750842</v>
+        <v>0.002777431415284061</v>
       </c>
       <c r="F39">
-        <v>-0.03781640635282037</v>
+        <v>0.0007442149261942095</v>
       </c>
       <c r="G39">
-        <v>0.07048161201947496</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.0391642071422775</v>
+      </c>
+      <c r="H39">
+        <v>-0.04922008006777762</v>
+      </c>
+      <c r="I39">
+        <v>0.07008623281190166</v>
+      </c>
+      <c r="J39">
+        <v>-0.01300925059984416</v>
+      </c>
+      <c r="K39">
+        <v>0.02037598969720247</v>
+      </c>
+      <c r="L39">
+        <v>-0.07927165307253431</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B40">
-        <v>-0.007836628798410229</v>
+        <v>0.01389054578584676</v>
       </c>
       <c r="C40">
-        <v>-0.02880468176850505</v>
+        <v>0.0601619156718796</v>
       </c>
       <c r="D40">
-        <v>-0.03293167474174706</v>
+        <v>-0.03696173370508214</v>
       </c>
       <c r="E40">
-        <v>0.1281992893786528</v>
+        <v>0.03351294875566404</v>
       </c>
       <c r="F40">
-        <v>-0.04104786073119846</v>
+        <v>0.03609463258175451</v>
       </c>
       <c r="G40">
-        <v>0.07659797418857964</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.1450085801784934</v>
+      </c>
+      <c r="H40">
+        <v>-0.04150217281721097</v>
+      </c>
+      <c r="I40">
+        <v>-0.0005625484951840024</v>
+      </c>
+      <c r="J40">
+        <v>0.07333024610890451</v>
+      </c>
+      <c r="K40">
+        <v>-0.2650491958995997</v>
+      </c>
+      <c r="L40">
+        <v>-0.02180607021892344</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B41">
-        <v>-0.008032098812052857</v>
+        <v>0.02118227208162591</v>
       </c>
       <c r="C41">
-        <v>-0.02007804474013997</v>
+        <v>0.04686501286235992</v>
       </c>
       <c r="D41">
-        <v>-0.006085829501413697</v>
+        <v>-0.0168721748536599</v>
       </c>
       <c r="E41">
-        <v>-0.0242767826579284</v>
+        <v>-0.008068341355311193</v>
       </c>
       <c r="F41">
-        <v>0.02961354732540138</v>
+        <v>-0.02590040858884401</v>
       </c>
       <c r="G41">
-        <v>-0.03120188164039207</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.01120917953577968</v>
+      </c>
+      <c r="H41">
+        <v>-0.02501456443408413</v>
+      </c>
+      <c r="I41">
+        <v>-0.02568444474929961</v>
+      </c>
+      <c r="J41">
+        <v>0.003575626122797196</v>
+      </c>
+      <c r="K41">
+        <v>-0.05667033661281108</v>
+      </c>
+      <c r="L41">
+        <v>-0.0123935161378834</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2296,101 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B43">
-        <v>-0.00236848112475573</v>
+        <v>0.01829770308182509</v>
       </c>
       <c r="C43">
-        <v>-0.01982224222601025</v>
+        <v>0.0439349940649451</v>
       </c>
       <c r="D43">
-        <v>-0.01251477632069612</v>
+        <v>-0.02974636899423566</v>
       </c>
       <c r="E43">
-        <v>-0.01037604873264498</v>
+        <v>-0.01488860481587531</v>
       </c>
       <c r="F43">
-        <v>-0.002529623260876515</v>
+        <v>-0.009622834118865496</v>
       </c>
       <c r="G43">
-        <v>-0.003877528624934849</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.004134133501913647</v>
+      </c>
+      <c r="H43">
+        <v>-0.0434358575400664</v>
+      </c>
+      <c r="I43">
+        <v>0.0009151165021214396</v>
+      </c>
+      <c r="J43">
+        <v>-0.007940219536766336</v>
+      </c>
+      <c r="K43">
+        <v>-0.04520811429859892</v>
+      </c>
+      <c r="L43">
+        <v>-0.0148968183288345</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B44">
-        <v>-0.02597800560851312</v>
+        <v>0.01428921029979899</v>
       </c>
       <c r="C44">
-        <v>-0.0979321769281819</v>
+        <v>0.09776724093486876</v>
       </c>
       <c r="D44">
-        <v>-0.0231861827458544</v>
+        <v>-0.05779317760830044</v>
       </c>
       <c r="E44">
-        <v>0.05109172798635019</v>
+        <v>-0.01199382231630834</v>
       </c>
       <c r="F44">
-        <v>-0.05671749808643347</v>
+        <v>0.06317450447416502</v>
       </c>
       <c r="G44">
-        <v>0.02117765889668864</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.03940081103834153</v>
+      </c>
+      <c r="H44">
+        <v>-0.05168306695212035</v>
+      </c>
+      <c r="I44">
+        <v>0.05309882663763428</v>
+      </c>
+      <c r="J44">
+        <v>-0.014901088312099</v>
+      </c>
+      <c r="K44">
+        <v>0.07852653672100171</v>
+      </c>
+      <c r="L44">
+        <v>0.01004409720913171</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2410,253 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B46">
-        <v>0.006466332758953228</v>
+        <v>0.004032515182952833</v>
       </c>
       <c r="C46">
-        <v>-0.0736270473359986</v>
+        <v>0.06537735940284703</v>
       </c>
       <c r="D46">
-        <v>-0.04423916402744543</v>
+        <v>-0.03094893455572357</v>
       </c>
       <c r="E46">
-        <v>0.02860907597726951</v>
+        <v>0.009101080937711677</v>
       </c>
       <c r="F46">
-        <v>-0.01612980065072531</v>
+        <v>-0.0152905088143173</v>
       </c>
       <c r="G46">
-        <v>0.05934636788515277</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.03413391800668271</v>
+      </c>
+      <c r="H46">
+        <v>-0.1053969841757553</v>
+      </c>
+      <c r="I46">
+        <v>0.0136497423370695</v>
+      </c>
+      <c r="J46">
+        <v>-0.0126753045179536</v>
+      </c>
+      <c r="K46">
+        <v>-0.07309379554241027</v>
+      </c>
+      <c r="L46">
+        <v>0.04915976538849726</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B47">
-        <v>-0.009536133529780957</v>
+        <v>0.02418799922909663</v>
       </c>
       <c r="C47">
-        <v>-0.08855367453668517</v>
+        <v>0.08409916663786363</v>
       </c>
       <c r="D47">
-        <v>-0.04351878477363709</v>
+        <v>-0.04544102308027673</v>
       </c>
       <c r="E47">
-        <v>-0.02184385983307408</v>
+        <v>0.004292404068213574</v>
       </c>
       <c r="F47">
-        <v>0.02469369437813035</v>
+        <v>-0.02103315679581788</v>
       </c>
       <c r="G47">
-        <v>0.05583605302847237</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.00428487155276326</v>
+      </c>
+      <c r="H47">
+        <v>-0.07118388788397287</v>
+      </c>
+      <c r="I47">
+        <v>-0.02232588223373985</v>
+      </c>
+      <c r="J47">
+        <v>0.003725498122060282</v>
+      </c>
+      <c r="K47">
+        <v>-0.04142628623990821</v>
+      </c>
+      <c r="L47">
+        <v>-0.04361530541735979</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B48">
-        <v>-0.0130520665690205</v>
+        <v>0.02189726712325859</v>
       </c>
       <c r="C48">
-        <v>-0.05540608800498396</v>
+        <v>0.05213590916929521</v>
       </c>
       <c r="D48">
-        <v>-0.06007723002177557</v>
+        <v>-0.05560893351509604</v>
       </c>
       <c r="E48">
-        <v>0.004558387962259246</v>
+        <v>-0.00705939775797104</v>
       </c>
       <c r="F48">
-        <v>-0.008509172461589535</v>
+        <v>-0.005189489485217558</v>
       </c>
       <c r="G48">
-        <v>0.02580655171332861</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.003926122983497947</v>
+      </c>
+      <c r="H48">
+        <v>-0.09844535933157748</v>
+      </c>
+      <c r="I48">
+        <v>0.03053781597096916</v>
+      </c>
+      <c r="J48">
+        <v>0.04486216907938206</v>
+      </c>
+      <c r="K48">
+        <v>0.08452965543500049</v>
+      </c>
+      <c r="L48">
+        <v>-0.06598815895525241</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.007828913381015642</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.02748905471904858</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.0007082780093192043</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>-0.01667833801289047</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>-0.03180865846395672</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>-0.03108758240872215</v>
+      </c>
+      <c r="H49">
+        <v>0.02251271960911577</v>
+      </c>
+      <c r="I49">
+        <v>0.04915961290882703</v>
+      </c>
+      <c r="J49">
+        <v>0.03652646156309394</v>
+      </c>
+      <c r="K49">
+        <v>0.03255750025175954</v>
+      </c>
+      <c r="L49">
+        <v>-0.003192545600006242</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B50">
-        <v>0.002386664241237681</v>
+        <v>0.01372656281361377</v>
       </c>
       <c r="C50">
-        <v>-0.0773797599000941</v>
+        <v>0.08097113108921582</v>
       </c>
       <c r="D50">
-        <v>-0.02898261628316835</v>
+        <v>-0.02880816673465476</v>
       </c>
       <c r="E50">
-        <v>0.001127069006255918</v>
+        <v>-0.001879714697635723</v>
       </c>
       <c r="F50">
-        <v>-0.006765169347696818</v>
+        <v>0.001347864010652349</v>
       </c>
       <c r="G50">
-        <v>0.006756230414940178</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.0153102854159782</v>
+      </c>
+      <c r="H50">
+        <v>-0.05707246392945398</v>
+      </c>
+      <c r="I50">
+        <v>-0.03613604765924661</v>
+      </c>
+      <c r="J50">
+        <v>0.009332987777063746</v>
+      </c>
+      <c r="K50">
+        <v>-0.03079591304582473</v>
+      </c>
+      <c r="L50">
+        <v>-0.0228492485964922</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B51">
-        <v>-0.002120860808268733</v>
+        <v>-0.00675624601212964</v>
       </c>
       <c r="C51">
-        <v>-0.07568820307044251</v>
+        <v>0.03812480749571905</v>
       </c>
       <c r="D51">
-        <v>-0.005334806250198362</v>
+        <v>-0.02244817093247586</v>
       </c>
       <c r="E51">
-        <v>0.07142095981190785</v>
+        <v>0.01238714005106806</v>
       </c>
       <c r="F51">
-        <v>-0.04849904232469426</v>
+        <v>0.02650757193220378</v>
       </c>
       <c r="G51">
-        <v>0.01588524631210425</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.02684065287066897</v>
+      </c>
+      <c r="H51">
+        <v>-0.09183109854276615</v>
+      </c>
+      <c r="I51">
+        <v>0.01071575744615685</v>
+      </c>
+      <c r="J51">
+        <v>0.01759206550794023</v>
+      </c>
+      <c r="K51">
+        <v>0.1149838801109744</v>
+      </c>
+      <c r="L51">
+        <v>0.01888627123565118</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2676,177 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B53">
-        <v>-0.04236300206792378</v>
+        <v>0.0582446432072482</v>
       </c>
       <c r="C53">
-        <v>-0.134557127168829</v>
+        <v>0.1319982217053255</v>
       </c>
       <c r="D53">
-        <v>-0.06352319273333443</v>
+        <v>-0.05605199438656743</v>
       </c>
       <c r="E53">
-        <v>-0.1309793479672971</v>
+        <v>-0.002684401472354765</v>
       </c>
       <c r="F53">
-        <v>0.0372809522213525</v>
+        <v>-0.06974415112483354</v>
       </c>
       <c r="G53">
-        <v>-0.02194786411093116</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.0831393790963661</v>
+      </c>
+      <c r="H53">
+        <v>0.03049598895081672</v>
+      </c>
+      <c r="I53">
+        <v>-0.04476982744866085</v>
+      </c>
+      <c r="J53">
+        <v>0.02596968224975134</v>
+      </c>
+      <c r="K53">
+        <v>-0.0233337599072117</v>
+      </c>
+      <c r="L53">
+        <v>-0.1043485645239842</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B54">
-        <v>-0.009332252500013245</v>
+        <v>0.01867147733504073</v>
       </c>
       <c r="C54">
-        <v>-0.0698402822856212</v>
+        <v>0.07621863822747908</v>
       </c>
       <c r="D54">
-        <v>-0.009587131121992075</v>
+        <v>-0.01144093131694969</v>
       </c>
       <c r="E54">
-        <v>-0.01874920752398094</v>
+        <v>0.002824021292890019</v>
       </c>
       <c r="F54">
-        <v>-0.009573689399045156</v>
+        <v>-0.0216096060351711</v>
       </c>
       <c r="G54">
-        <v>0.03078834693561925</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.01987498348589954</v>
+      </c>
+      <c r="H54">
+        <v>-0.05591473036560936</v>
+      </c>
+      <c r="I54">
+        <v>0.03084365407875532</v>
+      </c>
+      <c r="J54">
+        <v>0.01238993609401263</v>
+      </c>
+      <c r="K54">
+        <v>-0.006852177498040107</v>
+      </c>
+      <c r="L54">
+        <v>0.01222007729293572</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B55">
-        <v>-0.02555519267436902</v>
+        <v>0.03375078845431509</v>
       </c>
       <c r="C55">
-        <v>-0.09799510204219629</v>
+        <v>0.08928015292858574</v>
       </c>
       <c r="D55">
-        <v>-0.06554812078791247</v>
+        <v>-0.05424246795104144</v>
       </c>
       <c r="E55">
-        <v>-0.06339775205205701</v>
+        <v>-0.009067055373692937</v>
       </c>
       <c r="F55">
-        <v>0.03925954786709675</v>
+        <v>-0.05320592302347434</v>
       </c>
       <c r="G55">
-        <v>0.010237367066369</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.04355350027815372</v>
+      </c>
+      <c r="H55">
+        <v>0.01822518993980171</v>
+      </c>
+      <c r="I55">
+        <v>0.01054470969865487</v>
+      </c>
+      <c r="J55">
+        <v>0.0181778564082531</v>
+      </c>
+      <c r="K55">
+        <v>-0.01112338155519268</v>
+      </c>
+      <c r="L55">
+        <v>-0.05829889033633982</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B56">
-        <v>-0.02956683868638026</v>
+        <v>0.0462418705707982</v>
       </c>
       <c r="C56">
-        <v>-0.1747780750473917</v>
+        <v>0.154504151466783</v>
       </c>
       <c r="D56">
-        <v>-0.05835932435003834</v>
+        <v>-0.07800766098202554</v>
       </c>
       <c r="E56">
-        <v>-0.1262024483554128</v>
+        <v>0.01702327063283377</v>
       </c>
       <c r="F56">
-        <v>0.09027520637924832</v>
+        <v>-0.09480389624022682</v>
       </c>
       <c r="G56">
-        <v>-0.05295618583891472</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.1554316034908355</v>
+      </c>
+      <c r="H56">
+        <v>0.04861361154734347</v>
+      </c>
+      <c r="I56">
+        <v>-0.02454405592562928</v>
+      </c>
+      <c r="J56">
+        <v>0.03718756700290257</v>
+      </c>
+      <c r="K56">
+        <v>0.02037742704531557</v>
+      </c>
+      <c r="L56">
+        <v>-0.05856403936544317</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2866,481 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B58">
-        <v>-0.03031961036324387</v>
+        <v>0.02077747979224121</v>
       </c>
       <c r="C58">
-        <v>-0.2659731840099021</v>
+        <v>0.1761759013625886</v>
       </c>
       <c r="D58">
-        <v>0.0726733424918795</v>
+        <v>-0.03572733503021831</v>
       </c>
       <c r="E58">
-        <v>0.2539005497781034</v>
+        <v>0.01238472578738752</v>
       </c>
       <c r="F58">
-        <v>-0.2360988206407799</v>
+        <v>0.322941033733634</v>
       </c>
       <c r="G58">
-        <v>-0.2610613513437909</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.06013464739827796</v>
+      </c>
+      <c r="H58">
+        <v>-0.03719187501110536</v>
+      </c>
+      <c r="I58">
+        <v>-0.05425651653992362</v>
+      </c>
+      <c r="J58">
+        <v>-0.1362251760065112</v>
+      </c>
+      <c r="K58">
+        <v>0.4288516578584729</v>
+      </c>
+      <c r="L58">
+        <v>0.1888650386233254</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B59">
-        <v>-0.27729907023724</v>
+        <v>0.2878940180099571</v>
       </c>
       <c r="C59">
-        <v>0.006129310416615175</v>
+        <v>-0.04344515870917633</v>
       </c>
       <c r="D59">
-        <v>0.04091470653569104</v>
+        <v>0.007786261502202324</v>
       </c>
       <c r="E59">
-        <v>0.04816569330963558</v>
+        <v>0.03282305594035934</v>
       </c>
       <c r="F59">
-        <v>0.04566609433553674</v>
+        <v>0.04044377356334385</v>
       </c>
       <c r="G59">
-        <v>0.02737522988143178</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.004338490510362863</v>
+      </c>
+      <c r="H59">
+        <v>0.02125300381308709</v>
+      </c>
+      <c r="I59">
+        <v>-0.02242547497816859</v>
+      </c>
+      <c r="J59">
+        <v>0.009776992237907348</v>
+      </c>
+      <c r="K59">
+        <v>-0.02249353985743626</v>
+      </c>
+      <c r="L59">
+        <v>-0.01977856380210942</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B60">
-        <v>-0.113610520142013</v>
+        <v>0.1485772345083863</v>
       </c>
       <c r="C60">
-        <v>-0.1517923995143906</v>
+        <v>0.1576349340191642</v>
       </c>
       <c r="D60">
-        <v>-0.06526535845450139</v>
+        <v>-0.04440079468599314</v>
       </c>
       <c r="E60">
-        <v>-0.05919892961631914</v>
+        <v>0.01902783822510829</v>
       </c>
       <c r="F60">
-        <v>-0.01524216793209354</v>
+        <v>-0.1200600179472259</v>
       </c>
       <c r="G60">
-        <v>0.2953472328953151</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.2602473127730913</v>
+      </c>
+      <c r="H60">
+        <v>0.2229521126639252</v>
+      </c>
+      <c r="I60">
+        <v>0.01644074898958207</v>
+      </c>
+      <c r="J60">
+        <v>-0.02353121071094602</v>
+      </c>
+      <c r="K60">
+        <v>0.01694563234952342</v>
+      </c>
+      <c r="L60">
+        <v>0.108420040165483</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B61">
-        <v>-0.001787100874675799</v>
+        <v>0.0199542005064499</v>
       </c>
       <c r="C61">
-        <v>-0.08833690757960615</v>
+        <v>0.09688991046052073</v>
       </c>
       <c r="D61">
-        <v>-0.04947802725030261</v>
+        <v>-0.05105354969608557</v>
       </c>
       <c r="E61">
-        <v>-0.02058319368956042</v>
+        <v>0.002220969239759826</v>
       </c>
       <c r="F61">
-        <v>-0.009788551912628202</v>
+        <v>-0.03168205233619031</v>
       </c>
       <c r="G61">
-        <v>0.07418185485812348</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.02253079340555933</v>
+      </c>
+      <c r="H61">
+        <v>-0.06291972581641921</v>
+      </c>
+      <c r="I61">
+        <v>0.03507422316453002</v>
+      </c>
+      <c r="J61">
+        <v>0.02653617154175595</v>
+      </c>
+      <c r="K61">
+        <v>-0.01937276995935585</v>
+      </c>
+      <c r="L61">
+        <v>-0.04767474324276608</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.0020570694802456</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.01313725305596265</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.003625248543288927</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>-0.004287027521181258</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>0.01485080261223079</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>-0.01483063779254934</v>
+      </c>
+      <c r="H62">
+        <v>-0.006989895297822585</v>
+      </c>
+      <c r="I62">
+        <v>0.002348246085118618</v>
+      </c>
+      <c r="J62">
+        <v>0.06515827952012104</v>
+      </c>
+      <c r="K62">
+        <v>-0.001656807305553626</v>
+      </c>
+      <c r="L62">
+        <v>0.07081382480856142</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B63">
-        <v>0.001890147008906204</v>
+        <v>0.02687031591681821</v>
       </c>
       <c r="C63">
-        <v>-0.07250584555471216</v>
+        <v>0.07101061023477524</v>
       </c>
       <c r="D63">
-        <v>-0.03929606899588542</v>
+        <v>-0.05952939477856613</v>
       </c>
       <c r="E63">
-        <v>-0.02878190761851448</v>
+        <v>0.002642972337256913</v>
       </c>
       <c r="F63">
-        <v>-0.01253611724153178</v>
+        <v>-0.02286360692490583</v>
       </c>
       <c r="G63">
-        <v>0.03150708640820889</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.002542163751206689</v>
+      </c>
+      <c r="H63">
+        <v>-0.06189753936366769</v>
+      </c>
+      <c r="I63">
+        <v>0.01917187732316487</v>
+      </c>
+      <c r="J63">
+        <v>0.04845663321352191</v>
+      </c>
+      <c r="K63">
+        <v>-0.01541944026140046</v>
+      </c>
+      <c r="L63">
+        <v>-0.04617294514132769</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B64">
-        <v>-0.006795894188410394</v>
+        <v>0.01515660418220135</v>
       </c>
       <c r="C64">
-        <v>-0.07957640112713123</v>
+        <v>0.08843593128828958</v>
       </c>
       <c r="D64">
-        <v>-0.06277192601469166</v>
+        <v>-0.0327150728734928</v>
       </c>
       <c r="E64">
-        <v>0.02256737910130278</v>
+        <v>-0.02750564048153025</v>
       </c>
       <c r="F64">
-        <v>-0.03585709723146166</v>
+        <v>0.0371406900036451</v>
       </c>
       <c r="G64">
-        <v>0.0601266101275461</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.06975733029202573</v>
+      </c>
+      <c r="H64">
+        <v>-0.05115592549834364</v>
+      </c>
+      <c r="I64">
+        <v>0.0396575850170243</v>
+      </c>
+      <c r="J64">
+        <v>0.05319310006216246</v>
+      </c>
+      <c r="K64">
+        <v>-0.01717013869577615</v>
+      </c>
+      <c r="L64">
+        <v>-0.1151100680222986</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B65">
-        <v>-0.01204445828996966</v>
+        <v>0.02948631136878729</v>
       </c>
       <c r="C65">
-        <v>-0.07615887072301604</v>
+        <v>0.09433542105998467</v>
       </c>
       <c r="D65">
-        <v>-0.02467298856326531</v>
+        <v>-0.01800464775449397</v>
       </c>
       <c r="E65">
-        <v>0.03887111805373943</v>
+        <v>-0.02370919135187912</v>
       </c>
       <c r="F65">
-        <v>-0.03549378161658264</v>
+        <v>0.008904010149853717</v>
       </c>
       <c r="G65">
-        <v>0.01681229785779464</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.09880434494493297</v>
+      </c>
+      <c r="H65">
+        <v>-0.005436447521992684</v>
+      </c>
+      <c r="I65">
+        <v>0.07312340694153643</v>
+      </c>
+      <c r="J65">
+        <v>-0.05258447922893686</v>
+      </c>
+      <c r="K65">
+        <v>0.09326950462439296</v>
+      </c>
+      <c r="L65">
+        <v>-0.04502819153157941</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B66">
-        <v>-0.003448001514811405</v>
+        <v>0.01289122191571511</v>
       </c>
       <c r="C66">
-        <v>-0.169515146205675</v>
+        <v>0.1638233178673167</v>
       </c>
       <c r="D66">
-        <v>-0.02255137051226088</v>
+        <v>-0.04639954706241677</v>
       </c>
       <c r="E66">
-        <v>0.05692516649243531</v>
+        <v>0.0151583552642433</v>
       </c>
       <c r="F66">
-        <v>-0.03100092310246285</v>
+        <v>0.008944916296966001</v>
       </c>
       <c r="G66">
-        <v>0.08801681919261782</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.02295213274512816</v>
+      </c>
+      <c r="H66">
+        <v>-0.0609631743218411</v>
+      </c>
+      <c r="I66">
+        <v>0.05381068254778509</v>
+      </c>
+      <c r="J66">
+        <v>0.01562446671680925</v>
+      </c>
+      <c r="K66">
+        <v>0.02213862307184073</v>
+      </c>
+      <c r="L66">
+        <v>-0.04386602028233226</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B67">
-        <v>-0.02783153703485136</v>
+        <v>0.02091400527413346</v>
       </c>
       <c r="C67">
-        <v>-0.04087973345731568</v>
+        <v>0.05446191151881765</v>
       </c>
       <c r="D67">
-        <v>-0.06106773311856891</v>
+        <v>-0.04266326330809458</v>
       </c>
       <c r="E67">
-        <v>-0.03815395099211647</v>
+        <v>-0.02972468440175016</v>
       </c>
       <c r="F67">
-        <v>-0.00175499545037583</v>
+        <v>-0.0214780783078303</v>
       </c>
       <c r="G67">
-        <v>0.02008963871006036</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.01621384040146475</v>
+      </c>
+      <c r="H67">
+        <v>-0.05980181233883111</v>
+      </c>
+      <c r="I67">
+        <v>-0.04909836558678479</v>
+      </c>
+      <c r="J67">
+        <v>-0.02162037310993875</v>
+      </c>
+      <c r="K67">
+        <v>-0.06322567703051078</v>
+      </c>
+      <c r="L67">
+        <v>-0.09744566203073918</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B68">
-        <v>-0.289569274550587</v>
+        <v>0.2949057977871964</v>
       </c>
       <c r="C68">
-        <v>0.04026018479825662</v>
+        <v>-0.06951186942328351</v>
       </c>
       <c r="D68">
-        <v>0.03197640945591886</v>
+        <v>0.02768840851849692</v>
       </c>
       <c r="E68">
-        <v>0.02824007895108779</v>
+        <v>0.009856360670369265</v>
       </c>
       <c r="F68">
-        <v>-0.004196427519371518</v>
+        <v>0.03120931441095471</v>
       </c>
       <c r="G68">
-        <v>-0.01568425999177006</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.02043350907082324</v>
+      </c>
+      <c r="H68">
+        <v>-0.02446428198932018</v>
+      </c>
+      <c r="I68">
+        <v>-0.03352622738456951</v>
+      </c>
+      <c r="J68">
+        <v>0.07045926677565266</v>
+      </c>
+      <c r="K68">
+        <v>0.00788683123733306</v>
+      </c>
+      <c r="L68">
+        <v>0.01931067051556133</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B69">
-        <v>-0.01046626133308801</v>
+        <v>0.00731231864264292</v>
       </c>
       <c r="C69">
-        <v>-0.05950137481173456</v>
+        <v>0.05297856582799624</v>
       </c>
       <c r="D69">
-        <v>-0.044844174495482</v>
+        <v>-0.02297388484158515</v>
       </c>
       <c r="E69">
-        <v>-0.01795709884658995</v>
+        <v>0.001333769570446584</v>
       </c>
       <c r="F69">
-        <v>-0.00521226238908254</v>
+        <v>-0.01156074154054063</v>
       </c>
       <c r="G69">
-        <v>0.02027996373390626</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.02340412976960601</v>
+      </c>
+      <c r="H69">
+        <v>-0.04940982100217068</v>
+      </c>
+      <c r="I69">
+        <v>-0.01503603399218635</v>
+      </c>
+      <c r="J69">
+        <v>0.008501121606783646</v>
+      </c>
+      <c r="K69">
+        <v>-0.01507683563343287</v>
+      </c>
+      <c r="L69">
+        <v>-0.03713963161470964</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3360,975 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B71">
-        <v>-0.2810221208681977</v>
+        <v>0.2765864432000629</v>
       </c>
       <c r="C71">
-        <v>0.05183242800660671</v>
+        <v>-0.07589421734772668</v>
       </c>
       <c r="D71">
-        <v>0.03554417263670197</v>
+        <v>0.02491924786230884</v>
       </c>
       <c r="E71">
-        <v>0.02256309019795385</v>
+        <v>-0.00818123375913927</v>
       </c>
       <c r="F71">
-        <v>-0.02820508529982131</v>
+        <v>0.05961979915691357</v>
       </c>
       <c r="G71">
-        <v>-0.004951687943627193</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.02351150810888616</v>
+      </c>
+      <c r="H71">
+        <v>-0.05315090291909508</v>
+      </c>
+      <c r="I71">
+        <v>-0.1227934826312568</v>
+      </c>
+      <c r="J71">
+        <v>0.04996571717733939</v>
+      </c>
+      <c r="K71">
+        <v>0.03327504717555455</v>
+      </c>
+      <c r="L71">
+        <v>-0.03640535167444259</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B72">
-        <v>-0.0326304427428958</v>
+        <v>0.05402224991622744</v>
       </c>
       <c r="C72">
-        <v>-0.1466609903882251</v>
+        <v>0.1404694526047796</v>
       </c>
       <c r="D72">
-        <v>-0.05862758282292995</v>
+        <v>-0.04368301098907314</v>
       </c>
       <c r="E72">
-        <v>0.02664891984248914</v>
+        <v>-0.004748239129866892</v>
       </c>
       <c r="F72">
-        <v>-0.1125661762988582</v>
+        <v>-0.02835141270758162</v>
       </c>
       <c r="G72">
-        <v>0.08486002557463591</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.02807838638195012</v>
+      </c>
+      <c r="H72">
+        <v>-0.02603749273511185</v>
+      </c>
+      <c r="I72">
+        <v>0.1143316815272882</v>
+      </c>
+      <c r="J72">
+        <v>-0.03802409004084305</v>
+      </c>
+      <c r="K72">
+        <v>0.06548045431794809</v>
+      </c>
+      <c r="L72">
+        <v>-0.05799805930074031</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B73">
-        <v>-0.07179804821089271</v>
+        <v>0.1506227931574272</v>
       </c>
       <c r="C73">
-        <v>-0.1311471897689645</v>
+        <v>0.1959032921533366</v>
       </c>
       <c r="D73">
-        <v>-0.1012515096846828</v>
+        <v>-0.07957780312184669</v>
       </c>
       <c r="E73">
-        <v>-0.1394019346188134</v>
+        <v>-0.02437673790128129</v>
       </c>
       <c r="F73">
-        <v>-0.0611340542223397</v>
+        <v>-0.2376858156352059</v>
       </c>
       <c r="G73">
-        <v>0.3969698319203953</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.3935299771876631</v>
+      </c>
+      <c r="H73">
+        <v>0.297198599117857</v>
+      </c>
+      <c r="I73">
+        <v>-0.08943086620992147</v>
+      </c>
+      <c r="J73">
+        <v>-0.05869542586426085</v>
+      </c>
+      <c r="K73">
+        <v>0.05946704096351148</v>
+      </c>
+      <c r="L73">
+        <v>0.003991325825939755</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B74">
-        <v>-0.01890000432606942</v>
+        <v>0.04098971033860088</v>
       </c>
       <c r="C74">
-        <v>-0.09930386861038633</v>
+        <v>0.1039261746050645</v>
       </c>
       <c r="D74">
-        <v>-0.06928512474795433</v>
+        <v>-0.04636117342523574</v>
       </c>
       <c r="E74">
-        <v>-0.08257661231275971</v>
+        <v>-0.01011364686174579</v>
       </c>
       <c r="F74">
-        <v>0.05078884361973608</v>
+        <v>-0.04593142512210659</v>
       </c>
       <c r="G74">
-        <v>-0.01123708353731767</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.05019937934782988</v>
+      </c>
+      <c r="H74">
+        <v>0.004653894123487022</v>
+      </c>
+      <c r="I74">
+        <v>0.009040506619553679</v>
+      </c>
+      <c r="J74">
+        <v>0.06664276993408715</v>
+      </c>
+      <c r="K74">
+        <v>0.02348157677015226</v>
+      </c>
+      <c r="L74">
+        <v>-0.04585966078881703</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B75">
-        <v>-0.06216307195165762</v>
+        <v>0.06379118378184859</v>
       </c>
       <c r="C75">
-        <v>-0.1499037907900402</v>
+        <v>0.1663155694285705</v>
       </c>
       <c r="D75">
-        <v>-0.08995507148075406</v>
+        <v>-0.08354107604991183</v>
       </c>
       <c r="E75">
-        <v>-0.1916789633258938</v>
+        <v>-0.06304752827538623</v>
       </c>
       <c r="F75">
-        <v>0.08782663559108807</v>
+        <v>-0.1124598027294071</v>
       </c>
       <c r="G75">
-        <v>-0.1455993607502704</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.2263254797694992</v>
+      </c>
+      <c r="H75">
+        <v>0.03988110048109601</v>
+      </c>
+      <c r="I75">
+        <v>-0.1219877675359652</v>
+      </c>
+      <c r="J75">
+        <v>0.07005023115027754</v>
+      </c>
+      <c r="K75">
+        <v>-0.07842756600716391</v>
+      </c>
+      <c r="L75">
+        <v>-0.0655104442778814</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B76">
-        <v>-0.02788475103543743</v>
+        <v>0.04335733006695836</v>
       </c>
       <c r="C76">
-        <v>-0.118213306231977</v>
+        <v>0.1249879849566553</v>
       </c>
       <c r="D76">
-        <v>-0.06415582177287538</v>
+        <v>-0.07286003904225102</v>
       </c>
       <c r="E76">
-        <v>-0.09978934498879896</v>
+        <v>-0.01267086886718089</v>
       </c>
       <c r="F76">
-        <v>0.07615796426170901</v>
+        <v>-0.08233327619594105</v>
       </c>
       <c r="G76">
-        <v>-0.001072025943761163</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.08125643389441006</v>
+      </c>
+      <c r="H76">
+        <v>0.01791725190176484</v>
+      </c>
+      <c r="I76">
+        <v>0.008845508205460548</v>
+      </c>
+      <c r="J76">
+        <v>0.08369708087550977</v>
+      </c>
+      <c r="K76">
+        <v>-0.03130586335174814</v>
+      </c>
+      <c r="L76">
+        <v>-0.1126308727858575</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B77">
-        <v>-0.06999291487169813</v>
+        <v>0.04625722737296194</v>
       </c>
       <c r="C77">
-        <v>-0.3108749123311366</v>
+        <v>0.3886783277307209</v>
       </c>
       <c r="D77">
-        <v>0.8559879822939724</v>
+        <v>0.9045092184274288</v>
       </c>
       <c r="E77">
-        <v>-0.3119240773409239</v>
+        <v>-0.05620900960287636</v>
       </c>
       <c r="F77">
-        <v>-0.02306726930912733</v>
+        <v>-0.07730569919156356</v>
       </c>
       <c r="G77">
-        <v>0.04645721771014245</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.0353363201517932</v>
+      </c>
+      <c r="H77">
+        <v>-0.05512400973296171</v>
+      </c>
+      <c r="I77">
+        <v>0.0007589745119383531</v>
+      </c>
+      <c r="J77">
+        <v>0.02948500000898785</v>
+      </c>
+      <c r="K77">
+        <v>0.0002804627197145185</v>
+      </c>
+      <c r="L77">
+        <v>0.01133912980259696</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B78">
-        <v>-0.03541615933104469</v>
+        <v>0.03504211973339826</v>
       </c>
       <c r="C78">
-        <v>-0.1428310247419071</v>
+        <v>0.1138061083286646</v>
       </c>
       <c r="D78">
-        <v>-0.09955048770297188</v>
+        <v>-0.09805516983696699</v>
       </c>
       <c r="E78">
-        <v>0.07004958242623269</v>
+        <v>0.04381838085033442</v>
       </c>
       <c r="F78">
-        <v>0.09354607216523503</v>
+        <v>-0.0007850653652140881</v>
       </c>
       <c r="G78">
-        <v>-0.01141732210690295</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.1149991747531323</v>
+      </c>
+      <c r="H78">
+        <v>-0.04826785224236638</v>
+      </c>
+      <c r="I78">
+        <v>0.05394922705301809</v>
+      </c>
+      <c r="J78">
+        <v>-0.02982443656171976</v>
+      </c>
+      <c r="K78">
+        <v>0.4283990499489659</v>
+      </c>
+      <c r="L78">
+        <v>0.02435851822508989</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B79">
-        <v>-0.03413765320736017</v>
+        <v>0.05629947809564644</v>
       </c>
       <c r="C79">
-        <v>-0.175482912594459</v>
+        <v>0.142138490815623</v>
       </c>
       <c r="D79">
-        <v>-0.1163426300658464</v>
+        <v>-0.066764896117382</v>
       </c>
       <c r="E79">
-        <v>-0.128595671007179</v>
+        <v>0.006720126792138148</v>
       </c>
       <c r="F79">
-        <v>0.1461095604400104</v>
+        <v>-0.06997210753916561</v>
       </c>
       <c r="G79">
-        <v>-0.1381802302837059</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>0.236335879771548</v>
+      </c>
+      <c r="H79">
+        <v>0.01386229503299304</v>
+      </c>
+      <c r="I79">
+        <v>-0.07653292883391961</v>
+      </c>
+      <c r="J79">
+        <v>0.06524556360151079</v>
+      </c>
+      <c r="K79">
+        <v>0.06046387116568858</v>
+      </c>
+      <c r="L79">
+        <v>-0.04644700185101165</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B80">
-        <v>-0.01193164152193773</v>
+        <v>0.02064242510716523</v>
       </c>
       <c r="C80">
-        <v>-0.05142353342379814</v>
+        <v>0.05215127677592921</v>
       </c>
       <c r="D80">
-        <v>-0.05385398694839272</v>
+        <v>-0.03963139915177697</v>
       </c>
       <c r="E80">
-        <v>-0.001244446084166568</v>
+        <v>0.05316235789630341</v>
       </c>
       <c r="F80">
-        <v>0.03925758306356453</v>
+        <v>0.0135664334890608</v>
       </c>
       <c r="G80">
-        <v>-0.005551504094748437</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.05507669681821968</v>
+      </c>
+      <c r="H80">
+        <v>0.02812547103694258</v>
+      </c>
+      <c r="I80">
+        <v>-0.03664545470594479</v>
+      </c>
+      <c r="J80">
+        <v>0.001616003086906356</v>
+      </c>
+      <c r="K80">
+        <v>-0.08052485220234218</v>
+      </c>
+      <c r="L80">
+        <v>-0.07419283496120778</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B81">
-        <v>-0.009639978619822163</v>
+        <v>0.01651027795879906</v>
       </c>
       <c r="C81">
-        <v>-0.08826748319424477</v>
+        <v>0.1012175851600551</v>
       </c>
       <c r="D81">
-        <v>-0.07981113332194974</v>
+        <v>-0.05466709444664187</v>
       </c>
       <c r="E81">
-        <v>-0.1084678382150575</v>
+        <v>0.004722035888637962</v>
       </c>
       <c r="F81">
-        <v>0.0863890998408231</v>
+        <v>-0.05231660921060009</v>
       </c>
       <c r="G81">
-        <v>-0.03436788021205184</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.115948043105042</v>
+      </c>
+      <c r="H81">
+        <v>-0.03850507385654385</v>
+      </c>
+      <c r="I81">
+        <v>-0.04888975342901234</v>
+      </c>
+      <c r="J81">
+        <v>0.05558047478102853</v>
+      </c>
+      <c r="K81">
+        <v>-0.02709072428573983</v>
+      </c>
+      <c r="L81">
+        <v>-0.08127357262768152</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B82">
-        <v>-0.02900173535656326</v>
+        <v>0.04698881584959051</v>
       </c>
       <c r="C82">
-        <v>-0.09411335588268385</v>
+        <v>0.1056736030767035</v>
       </c>
       <c r="D82">
-        <v>-0.07614218921151759</v>
+        <v>-0.06587762956813219</v>
       </c>
       <c r="E82">
-        <v>-0.1192525230260292</v>
+        <v>-0.004609785512477677</v>
       </c>
       <c r="F82">
-        <v>0.06154873263793929</v>
+        <v>-0.07580299056252193</v>
       </c>
       <c r="G82">
-        <v>-0.005978871345853708</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>0.09636528573016401</v>
+      </c>
+      <c r="H82">
+        <v>-0.001521818050791795</v>
+      </c>
+      <c r="I82">
+        <v>-0.01501667846972986</v>
+      </c>
+      <c r="J82">
+        <v>0.05700675014876551</v>
+      </c>
+      <c r="K82">
+        <v>-0.01396738421433286</v>
+      </c>
+      <c r="L82">
+        <v>-0.1114926804047151</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B83">
-        <v>-0.0004440226904584217</v>
+        <v>0.001884323281044818</v>
       </c>
       <c r="C83">
-        <v>-0.04536667224140321</v>
+        <v>-0.005277167323068101</v>
       </c>
       <c r="D83">
-        <v>0.1752880112876402</v>
+        <v>0.06526935341769236</v>
       </c>
       <c r="E83">
-        <v>0.4164175104544982</v>
+        <v>0.9582962882418777</v>
       </c>
       <c r="F83">
-        <v>0.8010714084730037</v>
+        <v>-0.06293427974749445</v>
       </c>
       <c r="G83">
-        <v>0.1747911078939196</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.04023900132045793</v>
+      </c>
+      <c r="H83">
+        <v>0.09379999758178052</v>
+      </c>
+      <c r="I83">
+        <v>0.07668692273190739</v>
+      </c>
+      <c r="J83">
+        <v>0.04602905803998532</v>
+      </c>
+      <c r="K83">
+        <v>0.02097335015569084</v>
+      </c>
+      <c r="L83">
+        <v>-0.08217120933689236</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B84">
-        <v>0.002487175889863482</v>
+        <v>-0.000903870468069373</v>
       </c>
       <c r="C84">
-        <v>-0.05319811891526089</v>
+        <v>0.04264997421121291</v>
       </c>
       <c r="D84">
-        <v>-0.03124003441596463</v>
+        <v>-0.06067624539583826</v>
       </c>
       <c r="E84">
-        <v>0.08963517895551112</v>
+        <v>-0.006575339870344122</v>
       </c>
       <c r="F84">
-        <v>-0.09804309516760243</v>
+        <v>0.09428385983552544</v>
       </c>
       <c r="G84">
-        <v>-0.1004143517020653</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>0.03842764300904318</v>
+      </c>
+      <c r="H84">
+        <v>-0.07969412330629733</v>
+      </c>
+      <c r="I84">
+        <v>0.1236156572294761</v>
+      </c>
+      <c r="J84">
+        <v>0.0289192748254462</v>
+      </c>
+      <c r="K84">
+        <v>-0.04756744413049185</v>
+      </c>
+      <c r="L84">
+        <v>-0.1064258439413176</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B85">
-        <v>-0.02124546743824331</v>
+        <v>0.02979751235470147</v>
       </c>
       <c r="C85">
-        <v>-0.1309843825487889</v>
+        <v>0.1160680644742692</v>
       </c>
       <c r="D85">
-        <v>-0.08769887915372762</v>
+        <v>-0.07987323697607154</v>
       </c>
       <c r="E85">
-        <v>-0.1344913182233358</v>
+        <v>-0.01278622940351767</v>
       </c>
       <c r="F85">
-        <v>0.1203552709075436</v>
+        <v>-0.1295169177675024</v>
       </c>
       <c r="G85">
-        <v>-0.0880511777053498</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.2057893940110355</v>
+      </c>
+      <c r="H85">
+        <v>0.04613742218702398</v>
+      </c>
+      <c r="I85">
+        <v>-0.06609132412032034</v>
+      </c>
+      <c r="J85">
+        <v>0.1617411231902172</v>
+      </c>
+      <c r="K85">
+        <v>-0.03335493230821351</v>
+      </c>
+      <c r="L85">
+        <v>-0.1063005475142052</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B86">
-        <v>-0.02062405866140685</v>
+        <v>0.01595616985189053</v>
       </c>
       <c r="C86">
-        <v>-0.06854856278846676</v>
+        <v>0.08033182354723768</v>
       </c>
       <c r="D86">
-        <v>0.02931026091177</v>
+        <v>-0.02517369654981056</v>
       </c>
       <c r="E86">
-        <v>0.03164427683985771</v>
+        <v>0.01250947704774132</v>
       </c>
       <c r="F86">
-        <v>-0.07321361106465887</v>
+        <v>0.08945991079623093</v>
       </c>
       <c r="G86">
-        <v>0.02395138270291998</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.04632571350992552</v>
+      </c>
+      <c r="H86">
+        <v>-0.01715440202749274</v>
+      </c>
+      <c r="I86">
+        <v>-0.1573453361110503</v>
+      </c>
+      <c r="J86">
+        <v>-0.1079772339496734</v>
+      </c>
+      <c r="K86">
+        <v>0.1371779425340567</v>
+      </c>
+      <c r="L86">
+        <v>-0.09137644903075323</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B87">
-        <v>-0.04127358059022326</v>
+        <v>0.02654464830535923</v>
       </c>
       <c r="C87">
-        <v>-0.1485089977982008</v>
+        <v>0.1176657175822062</v>
       </c>
       <c r="D87">
-        <v>-0.02020802279202625</v>
+        <v>-0.01740345039954654</v>
       </c>
       <c r="E87">
-        <v>0.1082190660871616</v>
+        <v>0.002685602151954878</v>
       </c>
       <c r="F87">
-        <v>-0.01756144541106359</v>
+        <v>0.07070696135711803</v>
       </c>
       <c r="G87">
-        <v>-0.02931996901405676</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.009218530628294749</v>
+      </c>
+      <c r="H87">
+        <v>-0.03915171991361534</v>
+      </c>
+      <c r="I87">
+        <v>0.09347363391208702</v>
+      </c>
+      <c r="J87">
+        <v>0.07373533424424261</v>
+      </c>
+      <c r="K87">
+        <v>0.07920721510389353</v>
+      </c>
+      <c r="L87">
+        <v>0.03735306294346837</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B88">
-        <v>-0.004305063987502127</v>
+        <v>0.03808400604688657</v>
       </c>
       <c r="C88">
-        <v>-0.03794574508145813</v>
+        <v>0.06383469997245873</v>
       </c>
       <c r="D88">
-        <v>-0.04716875110928199</v>
+        <v>-0.04151467457105328</v>
       </c>
       <c r="E88">
-        <v>-0.06023121676857611</v>
+        <v>-0.01598497117220172</v>
       </c>
       <c r="F88">
-        <v>-0.00653745234011419</v>
+        <v>-0.0212237673331303</v>
       </c>
       <c r="G88">
-        <v>0.01254681392380278</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.02392328711797195</v>
+      </c>
+      <c r="H88">
+        <v>-0.005023400897082938</v>
+      </c>
+      <c r="I88">
+        <v>-0.01684366673065362</v>
+      </c>
+      <c r="J88">
+        <v>0.01883237210839389</v>
+      </c>
+      <c r="K88">
+        <v>-0.08515425025346346</v>
+      </c>
+      <c r="L88">
+        <v>-0.1143657798696211</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B89">
-        <v>-0.3891015820470126</v>
+        <v>0.3901725906650875</v>
       </c>
       <c r="C89">
-        <v>0.09438740534974399</v>
+        <v>-0.1151085719730109</v>
       </c>
       <c r="D89">
-        <v>-0.1046943546677532</v>
+        <v>0.03420484342763823</v>
       </c>
       <c r="E89">
-        <v>0.08534804808877827</v>
+        <v>-0.03739953351447473</v>
       </c>
       <c r="F89">
-        <v>0.004887060010858588</v>
+        <v>0.0672674168136385</v>
       </c>
       <c r="G89">
-        <v>-0.08641595660110744</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.03427177466663136</v>
+      </c>
+      <c r="H89">
+        <v>-0.006486963618235261</v>
+      </c>
+      <c r="I89">
+        <v>0.7338416108975003</v>
+      </c>
+      <c r="J89">
+        <v>-0.1162754132229455</v>
+      </c>
+      <c r="K89">
+        <v>0.000978559702075373</v>
+      </c>
+      <c r="L89">
+        <v>-0.05692504940664468</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B90">
-        <v>-0.3058404056401042</v>
+        <v>0.3147186283464783</v>
       </c>
       <c r="C90">
-        <v>0.03477820117143307</v>
+        <v>-0.07478688454087698</v>
       </c>
       <c r="D90">
-        <v>0.01297521770297768</v>
+        <v>0.0171348548134391</v>
       </c>
       <c r="E90">
-        <v>0.06905276189983671</v>
+        <v>0.02123209214600185</v>
       </c>
       <c r="F90">
-        <v>0.03349552078980333</v>
+        <v>0.0353422249315592</v>
       </c>
       <c r="G90">
-        <v>0.03755958783432167</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.01267898532577645</v>
+      </c>
+      <c r="H90">
+        <v>-0.02022318782846317</v>
+      </c>
+      <c r="I90">
+        <v>-0.08569552701410231</v>
+      </c>
+      <c r="J90">
+        <v>0.00890786859183872</v>
+      </c>
+      <c r="K90">
+        <v>0.007451198805928891</v>
+      </c>
+      <c r="L90">
+        <v>0.02834905782421196</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B91">
-        <v>-0.03383136745177477</v>
+        <v>0.05290579122410077</v>
       </c>
       <c r="C91">
-        <v>-0.09001777880871253</v>
+        <v>0.0871061364761969</v>
       </c>
       <c r="D91">
-        <v>-0.04806472620004555</v>
+        <v>-0.04339148472156057</v>
       </c>
       <c r="E91">
-        <v>-0.07614311259946295</v>
+        <v>0.02231790180062516</v>
       </c>
       <c r="F91">
-        <v>0.07709606427055664</v>
+        <v>-0.06217152940296308</v>
       </c>
       <c r="G91">
-        <v>-0.03740438393772259</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.07852916472538239</v>
+      </c>
+      <c r="H91">
+        <v>0.0312740756174756</v>
+      </c>
+      <c r="I91">
+        <v>0.0001887777388970151</v>
+      </c>
+      <c r="J91">
+        <v>0.01640350994325739</v>
+      </c>
+      <c r="K91">
+        <v>-0.05037003494118189</v>
+      </c>
+      <c r="L91">
+        <v>-0.03570996567615445</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B92">
-        <v>-0.3830466302750155</v>
+        <v>0.3548449056288199</v>
       </c>
       <c r="C92">
-        <v>0.09421054653172337</v>
+        <v>-0.1221178875372258</v>
       </c>
       <c r="D92">
-        <v>0.01457304982077627</v>
+        <v>0.05289637183788685</v>
       </c>
       <c r="E92">
-        <v>-0.0182717936126259</v>
+        <v>-0.03919092785117508</v>
       </c>
       <c r="F92">
-        <v>-0.098687273679418</v>
+        <v>0.05618426366670305</v>
       </c>
       <c r="G92">
-        <v>-0.04479736362471041</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.01113864685028985</v>
+      </c>
+      <c r="H92">
+        <v>-0.07124236497756654</v>
+      </c>
+      <c r="I92">
+        <v>-0.1556709678787785</v>
+      </c>
+      <c r="J92">
+        <v>-0.01357908490723817</v>
+      </c>
+      <c r="K92">
+        <v>-0.004543876945372448</v>
+      </c>
+      <c r="L92">
+        <v>0.0474524235216187</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B93">
-        <v>-0.3013905627125227</v>
+        <v>0.3110897024479239</v>
       </c>
       <c r="C93">
-        <v>0.08597569505505073</v>
+        <v>-0.1127559772885106</v>
       </c>
       <c r="D93">
-        <v>-0.01551522410618493</v>
+        <v>0.006630832429470153</v>
       </c>
       <c r="E93">
-        <v>0.0620221617264868</v>
+        <v>0.007579358818633417</v>
       </c>
       <c r="F93">
-        <v>-0.01440752058406372</v>
+        <v>0.04005787503755126</v>
       </c>
       <c r="G93">
-        <v>-0.01990512017552988</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.03988859745265893</v>
+      </c>
+      <c r="H93">
+        <v>-0.03775024813884405</v>
+      </c>
+      <c r="I93">
+        <v>-0.1075007150531207</v>
+      </c>
+      <c r="J93">
+        <v>0.009807078459257523</v>
+      </c>
+      <c r="K93">
+        <v>0.003375527108634471</v>
+      </c>
+      <c r="L93">
+        <v>-0.04389972071253325</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B94">
-        <v>-0.05127362202836989</v>
+        <v>0.07854472189780089</v>
       </c>
       <c r="C94">
-        <v>-0.2125265952054718</v>
+        <v>0.169230556657783</v>
       </c>
       <c r="D94">
-        <v>-0.1613379554622296</v>
+        <v>-0.1038621496071249</v>
       </c>
       <c r="E94">
-        <v>-0.2741054107030226</v>
+        <v>-0.01102553583143305</v>
       </c>
       <c r="F94">
-        <v>0.2794200325330004</v>
+        <v>-0.1587984915089422</v>
       </c>
       <c r="G94">
-        <v>-0.5014467704644819</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.531937987139694</v>
+      </c>
+      <c r="H94">
+        <v>0.2345390173505024</v>
+      </c>
+      <c r="I94">
+        <v>0.1376987026067418</v>
+      </c>
+      <c r="J94">
+        <v>-0.2288267668014485</v>
+      </c>
+      <c r="K94">
+        <v>-0.2162672481670285</v>
+      </c>
+      <c r="L94">
+        <v>0.5111622772899665</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B95">
-        <v>-0.03842437536780172</v>
+        <v>0.03825955168624102</v>
       </c>
       <c r="C95">
-        <v>-0.1030551741673967</v>
+        <v>0.1290755000170772</v>
       </c>
       <c r="D95">
-        <v>-0.03765718728947153</v>
+        <v>-0.05946724005917281</v>
       </c>
       <c r="E95">
-        <v>-0.05300418481984322</v>
+        <v>-0.0386027416658194</v>
       </c>
       <c r="F95">
-        <v>0.04972678980987189</v>
+        <v>-0.07567422440967872</v>
       </c>
       <c r="G95">
-        <v>0.1552858219840513</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.04666678688654666</v>
+      </c>
+      <c r="H95">
+        <v>-0.07573439274033085</v>
+      </c>
+      <c r="I95">
+        <v>0.1646441301779436</v>
+      </c>
+      <c r="J95">
+        <v>0.179077114036354</v>
+      </c>
+      <c r="K95">
+        <v>-0.2077641328693831</v>
+      </c>
+      <c r="L95">
+        <v>-0.1731101161509066</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4348,139 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B97">
-        <v>-0.0004723785723148862</v>
+        <v>0.01140602610391593</v>
       </c>
       <c r="C97">
-        <v>-0.0006832311659718025</v>
+        <v>0.01690902341502993</v>
       </c>
       <c r="D97">
-        <v>-7.734098493035478e-05</v>
+        <v>0.008940914121902401</v>
       </c>
       <c r="E97">
-        <v>0.0002330784692527094</v>
+        <v>-0.03052230821526025</v>
       </c>
       <c r="F97">
-        <v>-0.0009751124300770384</v>
+        <v>0.01218561730599786</v>
       </c>
       <c r="G97">
-        <v>-0.001652634501035567</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>-0.02698180039717545</v>
+      </c>
+      <c r="H97">
+        <v>-0.03636748578578412</v>
+      </c>
+      <c r="I97">
+        <v>0.01409235228980904</v>
+      </c>
+      <c r="J97">
+        <v>-0.1371378788360799</v>
+      </c>
+      <c r="K97">
+        <v>-0.01893098263977747</v>
+      </c>
+      <c r="L97">
+        <v>-0.0701633009166151</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B98">
-        <v>-0.0893039620016397</v>
+        <v>0.1307642525706907</v>
       </c>
       <c r="C98">
-        <v>-0.1504687935787751</v>
+        <v>0.1590777276715915</v>
       </c>
       <c r="D98">
-        <v>-0.1030968533035216</v>
+        <v>-0.08586374812018012</v>
       </c>
       <c r="E98">
-        <v>-0.06951375296213001</v>
+        <v>-0.01651225753635059</v>
       </c>
       <c r="F98">
-        <v>-0.04054753462517161</v>
+        <v>-0.212620311206817</v>
       </c>
       <c r="G98">
-        <v>0.2687125263408945</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.3407174529298392</v>
+      </c>
+      <c r="H98">
+        <v>0.3332225466315591</v>
+      </c>
+      <c r="I98">
+        <v>-0.1041233058212416</v>
+      </c>
+      <c r="J98">
+        <v>-0.0975717705379406</v>
+      </c>
+      <c r="K98">
+        <v>0.08551273093019261</v>
+      </c>
+      <c r="L98">
+        <v>0.1937858218322511</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.01038172321533558</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>0.04079022035800477</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>0.001480892438476572</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.002785135461409662</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>-0.06514060247290497</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>0.05736479573978158</v>
+      </c>
+      <c r="H99">
+        <v>-0.09701082427722645</v>
+      </c>
+      <c r="I99">
+        <v>-0.06041983160579534</v>
+      </c>
+      <c r="J99">
+        <v>-0.8187835316012491</v>
+      </c>
+      <c r="K99">
+        <v>-0.07237160149793564</v>
+      </c>
+      <c r="L99">
+        <v>-0.34986163354861</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4500,101 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B101">
-        <v>-0.006534099640509944</v>
+        <v>0.01372581532258808</v>
       </c>
       <c r="C101">
-        <v>-0.07109474250208307</v>
+        <v>0.07961070284704672</v>
       </c>
       <c r="D101">
-        <v>-0.04186041462254157</v>
+        <v>-0.05319628249978332</v>
       </c>
       <c r="E101">
-        <v>0.03757466365409125</v>
+        <v>0.05320195410947452</v>
       </c>
       <c r="F101">
-        <v>-0.01701473084357682</v>
+        <v>-0.00504274330678428</v>
       </c>
       <c r="G101">
-        <v>0.09565691375127094</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1116727931538544</v>
+      </c>
+      <c r="H101">
+        <v>-0.2983077071308926</v>
+      </c>
+      <c r="I101">
+        <v>0.04109154318764111</v>
+      </c>
+      <c r="J101">
+        <v>-0.04355862193240895</v>
+      </c>
+      <c r="K101">
+        <v>-0.1578016020706828</v>
+      </c>
+      <c r="L101">
+        <v>0.2978467093333775</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B102">
-        <v>-0.01008270396243054</v>
+        <v>0.003749484774542705</v>
       </c>
       <c r="C102">
-        <v>-0.03116248407250292</v>
+        <v>0.0120778937532127</v>
       </c>
       <c r="D102">
-        <v>-0.009843694505710517</v>
+        <v>-0.00170155669194014</v>
       </c>
       <c r="E102">
-        <v>-0.02647701475847163</v>
+        <v>0.004640119003958544</v>
       </c>
       <c r="F102">
-        <v>0.02850800172553931</v>
+        <v>-0.008718818577062212</v>
       </c>
       <c r="G102">
-        <v>0.0007932732777506068</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.009134525351169386</v>
+      </c>
+      <c r="H102">
+        <v>-0.001186442174516451</v>
+      </c>
+      <c r="I102">
+        <v>0.01797612193507525</v>
+      </c>
+      <c r="J102">
+        <v>-0.01014733200433862</v>
+      </c>
+      <c r="K102">
+        <v>0.001121624916707768</v>
+      </c>
+      <c r="L102">
+        <v>0.02693717266821715</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4614,25 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4650,21 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
         <v>0</v>
       </c>
     </row>
